--- a/기획/방랑엽사전/스킬 테이블.xlsx
+++ b/기획/방랑엽사전/스킬 테이블.xlsx
@@ -1,220 +1,1198 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\unityenginebasic_9th\기획\방랑엽사전\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6FBA72-2916-49E5-BD66-736DC2AE77F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.103.97.45139"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="7530" yWindow="630" windowWidth="21270" windowHeight="14850" xr2:uid="{8A8512E3-2CBB-4889-BCFA-890D3F4CB2D8}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>사용 방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>시전 방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>적용 대상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>발동 대상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>타겟팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>범위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>사용 조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>사용 비용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>선행 스킬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>쿨타임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>추가 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>문자(한글) 256자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>숫자 2자</t>
   </si>
   <si>
     <t>숫자 2자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>분류-전투/비전투</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>분류-문파</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>분류-액티브/패시브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>분류1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>분류2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>분류3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>00 = 전투, 01=비전투</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">00 = 공용, 01 = 개방, 02 = 소림, 03 = 무당, 04 = 화산, 05 = 곤륜, 06 = 종남, 07 = 마교, 08 = 혈교, 09 = 하오문, 10 = 일월신교, 11 = 좌도방, 12 = 우도방 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>00 = 액티브, 01 = 패시브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">00 = 공격, 01 = 이동, 02 = 회복, 03 = 버프, 04 = 디버프 … ~ 99 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>문자 8자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과-1</t>
+  </si>
+  <si>
+    <t>효과1</t>
+  </si>
+  <si>
+    <t>효과1-횟수</t>
+  </si>
+  <si>
+    <t>효과2</t>
+  </si>
+  <si>
+    <t>효과2-횟수</t>
+  </si>
+  <si>
+    <t>효과3</t>
+  </si>
+  <si>
+    <t>효과3-횟수</t>
+  </si>
+  <si>
+    <t>사용 비용1</t>
+  </si>
+  <si>
+    <t>사용 비용2</t>
+  </si>
+  <si>
+    <t>사용 비용3</t>
+  </si>
+  <si>
+    <t>추가 효과1</t>
+  </si>
+  <si>
+    <t>추가 효과1-횟수</t>
+  </si>
+  <si>
+    <t>추가 효과2</t>
+  </si>
+  <si>
+    <t>추가 효과2-횟수</t>
+  </si>
+  <si>
+    <t>추가 효과3-횟수</t>
+  </si>
+  <si>
+    <t>추가 효과3</t>
+  </si>
+  <si>
+    <t>발동 대상 숫자</t>
+  </si>
+  <si>
+    <t>00 = 즉시, 01 = 충전, 02 = 채널링, 03 = 채널링</t>
+  </si>
+  <si>
+    <t>00 = 즉시, 01 = 충전, 02 = 캐스팅, 03 = 채널링</t>
+  </si>
+  <si>
+    <t>00 = 객체, 01 = 지형</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>true = 객체, false = 지형</t>
+  </si>
+  <si>
+    <t>대상 숫자</t>
+  </si>
+  <si>
+    <t>범위 방식</t>
+  </si>
+  <si>
+    <t>범위 형식</t>
+  </si>
+  <si>
+    <t>범위1</t>
+  </si>
+  <si>
+    <t>범위2</t>
+  </si>
+  <si>
+    <t>숫자 4자</t>
+  </si>
+  <si>
+    <t>사용 조건1</t>
+  </si>
+  <si>
+    <t>사용 조건2</t>
+  </si>
+  <si>
+    <t>사용 조건3</t>
+  </si>
+  <si>
+    <t>사용 비용1 숫자</t>
+  </si>
+  <si>
+    <t>사용 비용2 숫자</t>
+  </si>
+  <si>
+    <t>사용 비용3 숫자</t>
+  </si>
+  <si>
+    <t>시간</t>
+  </si>
+  <si>
+    <t>선행 스킬1</t>
+  </si>
+  <si>
+    <t>선행 스킬2</t>
+  </si>
+  <si>
+    <t>선행 스킬3</t>
+  </si>
+  <si>
+    <t>문자 9자</t>
+  </si>
+  <si>
+    <t>문자 10자</t>
+  </si>
+  <si>
+    <t>추가 효과1-개수</t>
+  </si>
+  <si>
+    <t>추가 효과2-개수</t>
+  </si>
+  <si>
+    <t>추가 효과3-개수</t>
+  </si>
+  <si>
+    <t>00 = 지구력, 01 = 체력, 02 = 집중력, 03 = 마기, 04 = 꽃잎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00 = 지구력, 01 = 체력, 02 = 집중력, 03 = 마기, 04 = 꽃잎 … ~ 99 </t>
+  </si>
+  <si>
+    <t>스킬 ID</t>
+  </si>
+  <si>
+    <t>효과1-개수</t>
+  </si>
+  <si>
+    <t>효과2-개수</t>
+  </si>
+  <si>
+    <t>효과3-개수</t>
+  </si>
+  <si>
+    <t>추가 효과1-타입</t>
+  </si>
+  <si>
+    <t>추가 효과2-타입</t>
+  </si>
+  <si>
+    <t>추가 효과3-타입</t>
+  </si>
+  <si>
+    <t>00 = 타원, 01 = 사각</t>
+  </si>
+  <si>
+    <t>true = 타원, false = 사각</t>
+  </si>
+  <si>
+    <t>타원 = 반지름, 사각 = 높이</t>
+  </si>
+  <si>
+    <t xml:space="preserve">타원 = 각도, </t>
+  </si>
+  <si>
+    <t>타원 = 각도, 사각 = 폭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00 = 기본, 01 = 공중, 02 </t>
+  </si>
+  <si>
+    <t>체공 높이</t>
+  </si>
+  <si>
+    <t>체공 사용</t>
+  </si>
+  <si>
+    <t>true = 체공 사용 가능, false = 체공 사용 불가능</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00 = 조건 없음, 01 = </t>
+  </si>
+  <si>
+    <t>사용 가능 액션</t>
+  </si>
+  <si>
+    <t>00 = 조건 없음, 01 = 체공 사용 가능, 02 = 체공 사용 불가</t>
+  </si>
+  <si>
+    <t>문자 4자</t>
+  </si>
+  <si>
+    <t>한글</t>
+  </si>
+  <si>
+    <t>영어</t>
+  </si>
+  <si>
+    <t>데이터 타입</t>
+  </si>
+  <si>
+    <t>기본 값</t>
+  </si>
+  <si>
+    <t>최소 값</t>
+  </si>
+  <si>
+    <t>최대 값</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>사용 가능 액션 = 02 일때 0으로 고정</t>
+  </si>
+  <si>
+    <t>사용 비용 1의 숫자</t>
+  </si>
+  <si>
+    <t>사용 비용 2의 숫자</t>
+  </si>
+  <si>
+    <t>사용 비용 3의 숫자</t>
+  </si>
+  <si>
+    <t>SkillName</t>
+  </si>
+  <si>
+    <t>SkillID</t>
+  </si>
+  <si>
+    <t>Skill_Name</t>
+  </si>
+  <si>
+    <t>Skill_ID</t>
+  </si>
+  <si>
+    <t>Skill_type</t>
+  </si>
+  <si>
+    <t>Skill_type1</t>
+  </si>
+  <si>
+    <t>분류-1</t>
+  </si>
+  <si>
+    <t>Skill_Maintype1</t>
+  </si>
+  <si>
+    <t>Skill_Maintype2</t>
+  </si>
+  <si>
+    <t>true = 전투, false=비전투</t>
+  </si>
+  <si>
+    <t>true = 액티브, false = 패시브</t>
+  </si>
+  <si>
+    <t>Skill_type2</t>
+  </si>
+  <si>
+    <t>Skill_type3</t>
+  </si>
+  <si>
+    <t>PreSkill1</t>
+  </si>
+  <si>
+    <t>PreSkill2</t>
+  </si>
+  <si>
+    <t>Cast_type</t>
+  </si>
+  <si>
+    <t>Targeting</t>
+  </si>
+  <si>
+    <t>Traget_num</t>
+  </si>
+  <si>
+    <t>Scale_type</t>
+  </si>
+  <si>
+    <t>Scale_num</t>
+  </si>
+  <si>
+    <t>Scale_num1</t>
+  </si>
+  <si>
+    <t>Scale_num2</t>
+  </si>
+  <si>
+    <t>cast_action</t>
+  </si>
+  <si>
+    <t>Cast_action</t>
+  </si>
+  <si>
+    <t>Cast_altitude</t>
+  </si>
+  <si>
+    <t>Skill_cost1</t>
+  </si>
+  <si>
+    <t>Skill_cost1_num</t>
+  </si>
+  <si>
+    <t>Skill_cost1_type</t>
+  </si>
+  <si>
+    <t>Skill_cost2_type</t>
+  </si>
+  <si>
+    <t>Skill_cost2_num</t>
+  </si>
+  <si>
+    <t>Skill_cost3_type</t>
+  </si>
+  <si>
+    <t>Skill_cost3_num</t>
+  </si>
+  <si>
+    <t>effect1_per</t>
+  </si>
+  <si>
+    <t>Effect1_per</t>
+  </si>
+  <si>
+    <t>Effect1_num</t>
+  </si>
+  <si>
+    <t>Effect2_per</t>
+  </si>
+  <si>
+    <t>Effect2_num</t>
+  </si>
+  <si>
+    <t>Effect3_per</t>
+  </si>
+  <si>
+    <t>Effect3_num</t>
+  </si>
+  <si>
+    <t>SubEffect1_type</t>
+  </si>
+  <si>
+    <t>SubEffect2_type</t>
+  </si>
+  <si>
+    <t>SubEffect3_type</t>
+  </si>
+  <si>
+    <t>SubEffect1_per</t>
+  </si>
+  <si>
+    <t>SubEffect3_num</t>
+  </si>
+  <si>
+    <t>SubEffect1_num</t>
+  </si>
+  <si>
+    <t>SubEffect2_per</t>
+  </si>
+  <si>
+    <t>SubEffect2_num</t>
+  </si>
+  <si>
+    <t>SubEffect3_per</t>
+  </si>
+  <si>
+    <t>Skill_coolTime</t>
+  </si>
+  <si>
+    <t>explanation</t>
+  </si>
+  <si>
+    <t>Skill_Explanation</t>
+  </si>
+  <si>
+    <t>회복 효과</t>
+  </si>
+  <si>
+    <t>회복-개수</t>
+  </si>
+  <si>
+    <t>회복-횟수</t>
+  </si>
+  <si>
+    <t>Heal_per</t>
+  </si>
+  <si>
+    <t>Heal_num</t>
+  </si>
+  <si>
+    <t>추가 효과1-시간</t>
+  </si>
+  <si>
+    <t>추가 효과2-시간</t>
+  </si>
+  <si>
+    <t>추가 효과3-시간</t>
+  </si>
+  <si>
+    <t>SubEffect1_time</t>
+  </si>
+  <si>
+    <t>SubEffect2_time</t>
+  </si>
+  <si>
+    <t>SubEffect3_time</t>
+  </si>
+  <si>
+    <t>숫작 4자</t>
+  </si>
+  <si>
+    <t>시간-초</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="20">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="3" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="2" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -514,176 +1492,1035 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAE9306-5509-4362-91D3-B81227F6D72D}">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="145.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.75499916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="16.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="1" width="16.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="6" style="1" width="16.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="145.75500488" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:7" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>18</v>
+      <c r="B5" s="0" t="s">
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="B6" s="0" t="s">
+        <v>114</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="0" t="s">
         <v>20</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>111</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>99</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="0" t="s">
         <v>21</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>117</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>99</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="B9" s="0" t="s">
+        <v>118</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>99</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
+    <row r="10" spans="1:7">
+      <c r="A10" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>119</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="D10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="0" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B12" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>99</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B13" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>99</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>99</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>99</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>99</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>99</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>99</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>99</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>99</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>